--- a/public/template-excel/bpih/penyerapan_perbidang.xlsx
+++ b/public/template-excel/bpih/penyerapan_perbidang.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\DESAIN WEB\BPKH\27-1-20\sampel data\bpih\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEBDIR\htdocs\sibpkh\public\template-excel\bpih\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699DCE1F-2CF8-464A-96AD-FDC7C3E0C53B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E36BDB-2D76-4E66-B61A-AA64886A0050}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{83273282-299C-46E3-B4D7-93C1EA3D9808}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Bidang</t>
   </si>
@@ -66,14 +69,31 @@
     <t>Sekretariat Dewan Pengawas</t>
   </si>
   <si>
-    <t>April</t>
+    <t>RKAT-P
+ 2019</t>
+  </si>
+  <si>
+    <t>RAKT-P Efisiensi 
+2019</t>
+  </si>
+  <si>
+    <t>Realisasi Agustus 2019</t>
+  </si>
+  <si>
+    <t>Persentase (%)</t>
+  </si>
+  <si>
+    <t>Agustus</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,40 +103,27 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -139,40 +146,43 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,109 +497,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A8E1CE-FF00-41C9-9B73-70C57F72DA12}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="20" style="7" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="2" max="2" width="20" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="13">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
-        <v>20000000000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="5">
+        <v>7320315000</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5927867000</v>
+      </c>
+      <c r="D2" s="6">
+        <v>677384743</v>
+      </c>
+      <c r="E2" s="7">
+        <f>D2/C2</f>
+        <v>0.11427124512071543</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
-        <v>20000000000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="5">
+        <v>3470000000</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3326457000</v>
+      </c>
+      <c r="D3" s="6">
+        <v>275463998</v>
+      </c>
+      <c r="E3" s="7">
+        <f t="shared" ref="E3:E12" si="0">D3/C3</f>
+        <v>8.2810028207188607E-2</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
-        <v>20000000000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B4" s="5">
+        <v>29867270000</v>
+      </c>
+      <c r="C4" s="5">
+        <v>13357245000</v>
+      </c>
+      <c r="D4" s="6">
+        <v>4588643634</v>
+      </c>
+      <c r="E4" s="7">
+        <f t="shared" si="0"/>
+        <v>0.343532190507848</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
-        <v>20000000000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="5">
+        <v>20803679000</v>
+      </c>
+      <c r="C5" s="5">
+        <v>19782351500</v>
+      </c>
+      <c r="D5" s="6">
+        <v>12428155310</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>0.62824459013378664</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
-        <v>20000000000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="5">
+        <v>5667022840</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5346396040</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1680164625</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>0.31426116068273907</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
-        <v>20000000000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B7" s="5">
+        <v>181904795000</v>
+      </c>
+      <c r="C7" s="5">
+        <v>162879022836</v>
+      </c>
+      <c r="D7" s="6">
+        <v>69150987258</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>0.42455428608278739</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
-        <v>20000000000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="5">
+        <v>10595773404</v>
+      </c>
+      <c r="C8" s="5">
+        <v>4315773404</v>
+      </c>
+      <c r="D8" s="6">
+        <v>620881789</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
+        <v>0.14386338921884695</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
-        <v>20000000000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B9" s="5">
+        <v>1555745760</v>
+      </c>
+      <c r="C9" s="5">
+        <v>929779760</v>
+      </c>
+      <c r="D9" s="6">
+        <v>341977247</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.36780457234302455</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
-        <v>20000000000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B10" s="5">
+        <v>9186591119</v>
+      </c>
+      <c r="C10" s="5">
+        <v>6946591119</v>
+      </c>
+      <c r="D10" s="6">
+        <v>3611223530</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.51985549000037523</v>
+      </c>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
-        <v>20000000000000</v>
-      </c>
+      <c r="B11" s="5">
+        <v>12068651819</v>
+      </c>
+      <c r="C11" s="5">
+        <v>11695921825</v>
+      </c>
+      <c r="D11" s="6">
+        <v>2848525719</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.24354862845537187</v>
+      </c>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="10">
+        <f>SUM(B2:B11)</f>
+        <v>282439843942</v>
+      </c>
+      <c r="C12" s="10">
+        <f t="shared" ref="C12" si="1">SUM(C2:C11)</f>
+        <v>234507405484</v>
+      </c>
+      <c r="D12" s="10">
+        <f>SUM(D2:D11)</f>
+        <v>96223407853</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.41032140394203942</v>
+      </c>
+      <c r="F12" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
